--- a/content/post/mtcars3.xlsx
+++ b/content/post/mtcars3.xlsx
@@ -374,7 +374,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
